--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H2">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I2">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J2">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N2">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O2">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P2">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q2">
-        <v>115.325423437224</v>
+        <v>117.6389503856373</v>
       </c>
       <c r="R2">
-        <v>1037.928810935016</v>
+        <v>1058.750553470736</v>
       </c>
       <c r="S2">
-        <v>0.05225663286230786</v>
+        <v>0.04546380059928772</v>
       </c>
       <c r="T2">
-        <v>0.0603841974993069</v>
+        <v>0.0526401493131762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H3">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I3">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J3">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.572043</v>
       </c>
       <c r="O3">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P3">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q3">
-        <v>5.277155513725332</v>
+        <v>4.95861628340711</v>
       </c>
       <c r="R3">
-        <v>47.494399623528</v>
+        <v>44.62754655066399</v>
       </c>
       <c r="S3">
-        <v>0.002391201957200342</v>
+        <v>0.001916351184859992</v>
       </c>
       <c r="T3">
-        <v>0.002763109740054878</v>
+        <v>0.002218842489580438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H4">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I4">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J4">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N4">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O4">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P4">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q4">
-        <v>1.242675706272</v>
+        <v>0.3704981788977778</v>
       </c>
       <c r="R4">
-        <v>11.184081356448</v>
+        <v>3.334483610079999</v>
       </c>
       <c r="S4">
-        <v>0.0005630852782856961</v>
+        <v>0.0001431860389147464</v>
       </c>
       <c r="T4">
-        <v>0.0006506629070906047</v>
+        <v>0.0001657876017552435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H5">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I5">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J5">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N5">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O5">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P5">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q5">
-        <v>45.576563571396</v>
+        <v>64.36135799675867</v>
       </c>
       <c r="R5">
-        <v>273.459381428376</v>
+        <v>386.168147980552</v>
       </c>
       <c r="S5">
-        <v>0.02065180147352776</v>
+        <v>0.02487366587913096</v>
       </c>
       <c r="T5">
-        <v>0.0159092079555379</v>
+        <v>0.01919994176442322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H6">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I6">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J6">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N6">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O6">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P6">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q6">
-        <v>1.056620780072</v>
+        <v>0.3810964581511111</v>
       </c>
       <c r="R6">
-        <v>9.509587020648</v>
+        <v>3.429868123359999</v>
       </c>
       <c r="S6">
-        <v>0.0004787794619194586</v>
+        <v>0.0001472819446763125</v>
       </c>
       <c r="T6">
-        <v>0.0005532448610558959</v>
+        <v>0.0001705300361320324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>126.44965</v>
       </c>
       <c r="I7">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J7">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N7">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O7">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P7">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q7">
-        <v>482.6860065233502</v>
+        <v>523.9986667240335</v>
       </c>
       <c r="R7">
-        <v>4344.174058710151</v>
+        <v>4715.9880005163</v>
       </c>
       <c r="S7">
-        <v>0.218716261158099</v>
+        <v>0.2025092099184748</v>
       </c>
       <c r="T7">
-        <v>0.2527335801539312</v>
+        <v>0.2344747888844311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>126.44965</v>
       </c>
       <c r="I8">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J8">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.572043</v>
       </c>
       <c r="O8">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P8">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q8">
         <v>22.08714301499444</v>
@@ -948,10 +948,10 @@
         <v>198.78428713495</v>
       </c>
       <c r="S8">
-        <v>0.01000819844498665</v>
+        <v>0.00853599477511368</v>
       </c>
       <c r="T8">
-        <v>0.01156479088705755</v>
+        <v>0.009883380482394512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>126.44965</v>
       </c>
       <c r="I9">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J9">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N9">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O9">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P9">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q9">
-        <v>5.201127003800001</v>
+        <v>1.650308432111111</v>
       </c>
       <c r="R9">
-        <v>46.8101430342</v>
+        <v>14.852775889</v>
       </c>
       <c r="S9">
-        <v>0.002356751670248662</v>
+        <v>0.0006377929524096052</v>
       </c>
       <c r="T9">
-        <v>0.002723301340292893</v>
+        <v>0.0007384669957895932</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>126.44965</v>
       </c>
       <c r="I10">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J10">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N10">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O10">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P10">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q10">
-        <v>190.757326577775</v>
+        <v>286.6845179108917</v>
       </c>
       <c r="R10">
-        <v>1144.54395946665</v>
+        <v>1720.10710746535</v>
       </c>
       <c r="S10">
-        <v>0.08643658339738325</v>
+        <v>0.1107946620951407</v>
       </c>
       <c r="T10">
-        <v>0.06658680996899312</v>
+        <v>0.08552221736726053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>126.44965</v>
       </c>
       <c r="I11">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J11">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N11">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O11">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P11">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q11">
-        <v>4.422407909216667</v>
+        <v>1.697516301444445</v>
       </c>
       <c r="R11">
-        <v>39.80167118295</v>
+        <v>15.277646713</v>
       </c>
       <c r="S11">
-        <v>0.002003895928507892</v>
+        <v>0.0006560373276871148</v>
       </c>
       <c r="T11">
-        <v>0.002315565333761796</v>
+        <v>0.0007595912006751121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H12">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I12">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J12">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N12">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O12">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P12">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q12">
-        <v>308.519125591971</v>
+        <v>401.5493331044481</v>
       </c>
       <c r="R12">
-        <v>2776.67213032774</v>
+        <v>3613.943997940032</v>
       </c>
       <c r="S12">
-        <v>0.139797194725548</v>
+        <v>0.1551863456040022</v>
       </c>
       <c r="T12">
-        <v>0.1615400946019495</v>
+        <v>0.1796821272370447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H13">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I13">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J13">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.572043</v>
       </c>
       <c r="O13">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P13">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q13">
-        <v>14.11747172637633</v>
+        <v>16.92576357741866</v>
       </c>
       <c r="R13">
-        <v>127.057245537387</v>
+        <v>152.331872196768</v>
       </c>
       <c r="S13">
-        <v>0.006396954938134995</v>
+        <v>0.006541281928747972</v>
       </c>
       <c r="T13">
-        <v>0.007391884421568348</v>
+        <v>0.00757380713644669</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H14">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I14">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J14">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N14">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O14">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P14">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q14">
-        <v>3.324412006188</v>
+        <v>1.264660184106667</v>
       </c>
       <c r="R14">
-        <v>29.919708055692</v>
+        <v>11.38194165696</v>
       </c>
       <c r="S14">
-        <v>0.001506368435620602</v>
+        <v>0.0004887518823281149</v>
       </c>
       <c r="T14">
-        <v>0.001740656528003079</v>
+        <v>0.0005659001606489315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H15">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I15">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J15">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N15">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O15">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P15">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q15">
-        <v>121.9266413375715</v>
+        <v>219.691354747504</v>
       </c>
       <c r="R15">
-        <v>731.5598480254291</v>
+        <v>1318.148128485024</v>
       </c>
       <c r="S15">
-        <v>0.05524779829644413</v>
+        <v>0.08490388525982077</v>
       </c>
       <c r="T15">
-        <v>0.04256038938348363</v>
+        <v>0.06553716932933186</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H16">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I16">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J16">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N16">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O16">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P16">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q16">
-        <v>2.826676975763</v>
+        <v>1.300836399146667</v>
       </c>
       <c r="R16">
-        <v>25.440092781867</v>
+        <v>11.70752759232</v>
       </c>
       <c r="S16">
-        <v>0.001280833111557499</v>
+        <v>0.0005027328658512078</v>
       </c>
       <c r="T16">
-        <v>0.001480043304277376</v>
+        <v>0.0005820880079142168</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H17">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I17">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J17">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N17">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O17">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P17">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q17">
-        <v>221.2843934684356</v>
+        <v>121.038159243332</v>
       </c>
       <c r="R17">
-        <v>1327.706360810613</v>
+        <v>726.228955459992</v>
       </c>
       <c r="S17">
-        <v>0.1002691077387026</v>
+        <v>0.0467774892474349</v>
       </c>
       <c r="T17">
-        <v>0.0772427571791276</v>
+        <v>0.03610746698138338</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H18">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I18">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J18">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.572043</v>
       </c>
       <c r="O18">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P18">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q18">
-        <v>10.12571315403817</v>
+        <v>5.101896823884665</v>
       </c>
       <c r="R18">
-        <v>60.754278924229</v>
+        <v>30.61138094330799</v>
       </c>
       <c r="S18">
-        <v>0.00458819624492983</v>
+        <v>0.00197172466363276</v>
       </c>
       <c r="T18">
-        <v>0.003534537570244121</v>
+        <v>0.001521971023538916</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H19">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I19">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J19">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N19">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O19">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P19">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q19">
-        <v>2.384424281694</v>
+        <v>0.3812038226266666</v>
       </c>
       <c r="R19">
-        <v>14.306545690164</v>
+        <v>2.28722293576</v>
       </c>
       <c r="S19">
-        <v>0.001080438125113679</v>
+        <v>0.0001473234377115028</v>
       </c>
       <c r="T19">
-        <v>0.0008323203589555317</v>
+        <v>0.0001137187191602781</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H20">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I20">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J20">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N20">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O20">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P20">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q20">
-        <v>87.45150831171077</v>
+        <v>66.22109660781099</v>
       </c>
       <c r="R20">
-        <v>349.8060332468431</v>
+        <v>264.884386431244</v>
       </c>
       <c r="S20">
-        <v>0.03962631332186449</v>
+        <v>0.02559239709105107</v>
       </c>
       <c r="T20">
-        <v>0.02035087221347878</v>
+        <v>0.01316981946952545</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H21">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I21">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J21">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N21">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O21">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P21">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q21">
-        <v>2.0274253627315</v>
+        <v>0.3921083419866666</v>
       </c>
       <c r="R21">
-        <v>12.164552176389</v>
+        <v>2.35265005192</v>
       </c>
       <c r="S21">
-        <v>0.0009186736079374724</v>
+        <v>0.000151537695762845</v>
       </c>
       <c r="T21">
-        <v>0.0007077043371095769</v>
+        <v>0.000116971698015876</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H22">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I22">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J22">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N22">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O22">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P22">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q22">
-        <v>382.8368180566441</v>
+        <v>457.3905607040688</v>
       </c>
       <c r="R22">
-        <v>3445.531362509797</v>
+        <v>4116.515046336619</v>
       </c>
       <c r="S22">
-        <v>0.1734722704768571</v>
+        <v>0.1767672457096747</v>
       </c>
       <c r="T22">
-        <v>0.2004527132226159</v>
+        <v>0.2046695191598646</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H23">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I23">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J23">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.572043</v>
       </c>
       <c r="O23">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P23">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q23">
-        <v>17.518161781252</v>
+        <v>19.27953517732855</v>
       </c>
       <c r="R23">
-        <v>157.663456031268</v>
+        <v>173.515816595957</v>
       </c>
       <c r="S23">
-        <v>0.007937886732526999</v>
+        <v>0.007450941546789197</v>
       </c>
       <c r="T23">
-        <v>0.009172480007409138</v>
+        <v>0.008627054280034751</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H24">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I24">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J24">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,28 +1922,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N24">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O24">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P24">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q24">
-        <v>4.125213670032</v>
+        <v>1.440529426948889</v>
       </c>
       <c r="R24">
-        <v>37.126923030288</v>
+        <v>12.96476484254</v>
       </c>
       <c r="S24">
-        <v>0.001869230303331846</v>
+        <v>0.0005567198823988016</v>
       </c>
       <c r="T24">
-        <v>0.002159954930611169</v>
+        <v>0.0006445967417767083</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H25">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I25">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J25">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N25">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O25">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P25">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q25">
-        <v>151.296965192826</v>
+        <v>250.2426069368169</v>
       </c>
       <c r="R25">
-        <v>907.781791156956</v>
+        <v>1501.455641620901</v>
       </c>
       <c r="S25">
-        <v>0.0685561754522112</v>
+        <v>0.09671099534572521</v>
       </c>
       <c r="T25">
-        <v>0.05281255745672539</v>
+        <v>0.07465105817696237</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H26">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I26">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J26">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N26">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O26">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P26">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q26">
-        <v>3.507581635332</v>
+        <v>1.481736466575556</v>
       </c>
       <c r="R26">
-        <v>31.568234717988</v>
+        <v>13.33562819918</v>
       </c>
       <c r="S26">
-        <v>0.001589366856752898</v>
+        <v>0.0005726451233732608</v>
       </c>
       <c r="T26">
-        <v>0.001836563837358217</v>
+        <v>0.0006630357427333723</v>
       </c>
     </row>
   </sheetData>
